--- a/Table/Table_xls/x循环任务/x循环任务-送信类分表.xlsx
+++ b/Table/Table_xls/x循环任务/x循环任务-送信类分表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -107,14 +107,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -123,15 +115,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -140,14 +124,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,8 +150,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,39 +173,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,10 +198,48 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,37 +279,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,145 +441,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,17 +473,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,41 +506,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +529,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -575,148 +575,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,11 +1131,15 @@
   <sheetPr/>
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="4" max="4" width="66.5" customWidth="1"/>
   </cols>
@@ -1157,7 +1161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:5">
+    <row r="2" ht="15.6" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1174,7 +1178,7 @@
         <v>100035</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:5">
+    <row r="3" ht="15.6" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1191,7 +1195,7 @@
         <v>100035</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:5">
+    <row r="4" ht="15.6" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>100035</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:5">
+    <row r="5" ht="15.6" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1225,7 +1229,7 @@
         <v>100035</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:5">
+    <row r="6" ht="15.6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1242,7 +1246,7 @@
         <v>100035</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:5">
+    <row r="7" ht="15.6" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>100035</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:5">
+    <row r="8" ht="15.6" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1276,7 +1280,7 @@
         <v>100035</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:5">
+    <row r="9" ht="15.6" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1293,7 +1297,7 @@
         <v>100035</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:5">
+    <row r="10" ht="15.6" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1310,7 +1314,7 @@
         <v>100035</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:5">
+    <row r="11" ht="15.6" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1327,7 +1331,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:5">
+    <row r="12" ht="15.6" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:5">
+    <row r="13" ht="15.6" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1361,7 +1365,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:5">
+    <row r="14" ht="15.6" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1378,7 +1382,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:5">
+    <row r="15" ht="15.6" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1395,7 +1399,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:5">
+    <row r="16" ht="15.6" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1412,7 +1416,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:5">
+    <row r="17" ht="15.6" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1429,7 +1433,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:5">
+    <row r="18" ht="15.6" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:5">
+    <row r="19" ht="15.6" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1463,7 +1467,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:5">
+    <row r="20" ht="15.6" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1480,7 +1484,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:5">
+    <row r="21" ht="15.6" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1497,7 +1501,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:5">
+    <row r="22" ht="15.6" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:5">
+    <row r="23" ht="15.6" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1531,7 +1535,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:5">
+    <row r="24" ht="15.6" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:5">
+    <row r="25" ht="15.6" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1565,7 +1569,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:5">
+    <row r="26" ht="15.6" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1582,7 +1586,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:5">
+    <row r="27" ht="15.6" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1599,7 +1603,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:5">
+    <row r="28" ht="15.6" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1616,7 +1620,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:5">
+    <row r="29" ht="15.6" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1633,7 +1637,7 @@
         <v>100183</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:5">
+    <row r="30" ht="15.6" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1650,7 +1654,7 @@
         <v>100183</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:5">
+    <row r="31" ht="15.6" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1667,7 +1671,7 @@
         <v>100183</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:5">
+    <row r="32" ht="15.6" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1684,7 +1688,7 @@
         <v>100183</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:5">
+    <row r="33" ht="15.6" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1701,7 +1705,7 @@
         <v>100183</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:5">
+    <row r="34" ht="15.6" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1718,7 +1722,7 @@
         <v>100183</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:5">
+    <row r="35" ht="15.6" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1735,7 +1739,7 @@
         <v>100183</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:5">
+    <row r="36" ht="15.6" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1752,7 +1756,7 @@
         <v>100183</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:5">
+    <row r="37" ht="15.6" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1769,7 +1773,7 @@
         <v>100183</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:5">
+    <row r="38" ht="15.6" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1786,7 +1790,7 @@
         <v>100184</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:5">
+    <row r="39" ht="15.6" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1803,7 +1807,7 @@
         <v>100184</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:5">
+    <row r="40" ht="15.6" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>100184</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:5">
+    <row r="41" ht="15.6" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1837,7 +1841,7 @@
         <v>100184</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:5">
+    <row r="42" ht="15.6" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1854,7 +1858,7 @@
         <v>100184</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="1:5">
+    <row r="43" ht="15.6" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1871,7 +1875,7 @@
         <v>100184</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="1:5">
+    <row r="44" ht="15.6" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1888,7 +1892,7 @@
         <v>100184</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="1:5">
+    <row r="45" ht="15.6" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1905,7 +1909,7 @@
         <v>100184</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="1:5">
+    <row r="46" ht="15.6" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1922,7 +1926,7 @@
         <v>100184</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="1:5">
+    <row r="47" ht="15.6" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1939,7 +1943,7 @@
         <v>100035</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="1:5">
+    <row r="48" ht="15.6" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1956,7 +1960,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="1:5">
+    <row r="49" ht="15.6" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1973,7 +1977,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="1:5">
+    <row r="50" ht="15.6" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1990,7 +1994,7 @@
         <v>100183</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="1:5">
+    <row r="51" ht="15.6" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2007,7 +2011,7 @@
         <v>100184</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="1:5">
+    <row r="52" ht="15.6" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2024,7 +2028,7 @@
         <v>100035</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="1:5">
+    <row r="53" ht="15.6" spans="1:5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2041,7 +2045,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="1:5">
+    <row r="54" ht="15.6" spans="1:5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="55" ht="15" spans="1:5">
+    <row r="55" ht="15.6" spans="1:5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2075,7 +2079,7 @@
         <v>100183</v>
       </c>
     </row>
-    <row r="56" ht="15" spans="1:5">
+    <row r="56" ht="15.6" spans="1:5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2092,7 +2096,7 @@
         <v>100184</v>
       </c>
     </row>
-    <row r="57" ht="15" spans="1:5">
+    <row r="57" ht="15.6" spans="1:5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2109,7 +2113,7 @@
         <v>100035</v>
       </c>
     </row>
-    <row r="58" ht="15" spans="1:5">
+    <row r="58" ht="15.6" spans="1:5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2126,7 +2130,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="59" ht="15" spans="1:5">
+    <row r="59" ht="15.6" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2143,7 +2147,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="60" ht="15" spans="1:5">
+    <row r="60" ht="15.6" spans="1:5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2160,7 +2164,7 @@
         <v>100183</v>
       </c>
     </row>
-    <row r="61" ht="15" spans="1:5">
+    <row r="61" ht="15.6" spans="1:5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2177,7 +2181,7 @@
         <v>100184</v>
       </c>
     </row>
-    <row r="62" ht="15" spans="1:5">
+    <row r="62" ht="15.6" spans="1:5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2194,7 +2198,7 @@
         <v>100035</v>
       </c>
     </row>
-    <row r="63" ht="15" spans="1:5">
+    <row r="63" ht="15.6" spans="1:5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2211,7 +2215,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="64" ht="15" spans="1:5">
+    <row r="64" ht="15.6" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2228,7 +2232,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="65" ht="15" spans="1:5">
+    <row r="65" ht="15.6" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2245,7 +2249,7 @@
         <v>100183</v>
       </c>
     </row>
-    <row r="66" ht="15" spans="1:5">
+    <row r="66" ht="15.6" spans="1:5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2262,7 +2266,7 @@
         <v>100184</v>
       </c>
     </row>
-    <row r="67" ht="15" spans="1:5">
+    <row r="67" ht="15.6" spans="1:5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2279,7 +2283,7 @@
         <v>100035</v>
       </c>
     </row>
-    <row r="68" ht="15" spans="1:5">
+    <row r="68" ht="15.6" spans="1:5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2296,7 +2300,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="69" ht="15" spans="1:5">
+    <row r="69" ht="15.6" spans="1:5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="70" ht="15" spans="1:5">
+    <row r="70" ht="15.6" spans="1:5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2330,7 +2334,7 @@
         <v>100183</v>
       </c>
     </row>
-    <row r="71" ht="15" spans="1:5">
+    <row r="71" ht="15.6" spans="1:5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2347,7 +2351,7 @@
         <v>100184</v>
       </c>
     </row>
-    <row r="72" ht="15" spans="1:5">
+    <row r="72" ht="15.6" spans="1:5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2364,7 +2368,7 @@
         <v>100035</v>
       </c>
     </row>
-    <row r="73" ht="15" spans="1:5">
+    <row r="73" ht="15.6" spans="1:5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2381,7 +2385,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="74" ht="15" spans="1:5">
+    <row r="74" ht="15.6" spans="1:5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2398,7 +2402,7 @@
         <v>100036</v>
       </c>
     </row>
-    <row r="75" ht="15" spans="1:5">
+    <row r="75" ht="15.6" spans="1:5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2415,7 +2419,7 @@
         <v>100183</v>
       </c>
     </row>
-    <row r="76" ht="15" spans="1:5">
+    <row r="76" ht="15.6" spans="1:5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2451,7 +2455,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -2468,7 +2472,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
